--- a/math_table2.xlsx
+++ b/math_table2.xlsx
@@ -8,184 +8,190 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pycharm\Project\math2kor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CD5732-0E3C-4A9B-BED7-9E23B6D1CEB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62311D77-DF38-4393-B7CA-F0914A488FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27D9692B-97CD-4BDC-A1F7-55AC2669344C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보다 크다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보다 작다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보다 크거나같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보다 작거나같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보다 매우 크다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보다 매우 작다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는 닮음꼴이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는 근사값이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에 포함된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">는 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>를 포함한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parallel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는 평행한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는 직교한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는 합동이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftrightarrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는 동치관계이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의 합집합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의 교집합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 더 크다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 더 작다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 더 크거나 같다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 더 작거나 같다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 몹시 크다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 몹시 작다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 와</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 는 닮음꼴이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 는 근사값이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 는 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 를 포함한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 에 포함된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parallel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 는 평행한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 는 직교한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equiv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 는 합동이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leftrightarrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 는 동치관계이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acute</t>
+    <t>닷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 닷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 의 합집합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 의 교집합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,15 +238,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -554,117 +556,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A43A105-1004-450D-95FC-2AC1AAB96FDB}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C22"/>
+      <selection activeCell="I13" sqref="I13:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -672,346 +669,113 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21"/>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23"/>
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24"/>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27"/>
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28"/>
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29"/>
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30"/>
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31"/>
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32"/>
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33"/>
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34"/>
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35"/>
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36"/>
-      <c r="B36"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37"/>
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38"/>
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39"/>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40"/>
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41"/>
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42"/>
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43"/>
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44"/>
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46"/>
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47"/>
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48"/>
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49"/>
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50"/>
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51"/>
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52"/>
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53"/>
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54"/>
-      <c r="B54"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55"/>
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56"/>
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57"/>
-      <c r="B57"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59"/>
-      <c r="B59"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60"/>
-      <c r="B60"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61"/>
-      <c r="B61"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62"/>
-      <c r="B62"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63"/>
-      <c r="B63"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64"/>
-      <c r="B64"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65"/>
-      <c r="B65"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66"/>
-      <c r="B66"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67"/>
-      <c r="B67"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68"/>
-      <c r="B68"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69"/>
-      <c r="B69"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70"/>
-      <c r="B70"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72"/>
-      <c r="B72"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79"/>
-      <c r="B79"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80"/>
-      <c r="B80"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81"/>
-      <c r="B81"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82"/>
-      <c r="B82"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83"/>
-      <c r="B83"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/math_table2.xlsx
+++ b/math_table2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pycharm\Project\math2kor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62311D77-DF38-4393-B7CA-F0914A488FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05DD9498-C984-4CFB-9140-9B191C1ABE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27D9692B-97CD-4BDC-A1F7-55AC2669344C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54A162BE-F36F-458D-9399-B29A75811F3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,166 +33,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보다 크다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보다 작다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>geq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보다 크거나같다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>leq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보다 작거나같다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보다 매우 크다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보다 매우 작다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>와</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>는 닮음꼴이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는 닮음이다</t>
   </si>
   <si>
     <t>appox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>는 근사값이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>supset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>에 포함된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>subset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">는 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>를 포함한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>parallel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>는 평행한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>prep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>는 직교한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>equiv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>는 합동이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>leftrightarrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>는 동치관계이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>의 합집합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>의 교집합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>acute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>닷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -238,11 +192,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -556,11 +509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A43A105-1004-450D-95FC-2AC1AAB96FDB}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D41D19-31C7-4674-96C6-EBDC868F3433}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I14"/>
+      <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -669,109 +622,98 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
